--- a/output/fit_clients/fit_round_465.xlsx
+++ b/output/fit_clients/fit_round_465.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2334928392.360607</v>
+        <v>2388462229.664138</v>
       </c>
       <c r="F2" t="n">
-        <v>0.089460124026013</v>
+        <v>0.07293126635128715</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04548046072061265</v>
+        <v>0.02953416318429665</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1167464236.9186</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2308843509.172744</v>
+        <v>1913656263.226682</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1331201698170941</v>
+        <v>0.1803297950783042</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03612204911837164</v>
+        <v>0.04181456747339988</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1154421842.496139</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3401005886.985358</v>
+        <v>4209862774.114856</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1542546860495465</v>
+        <v>0.1653624184924649</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02346568175194136</v>
+        <v>0.03702498125154208</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1700502915.258859</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3764493436.605605</v>
+        <v>2747929442.117933</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1049626652364769</v>
+        <v>0.0755985928988204</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04916834934671857</v>
+        <v>0.04000255295970238</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>172</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1882246737.619361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2031073779.001259</v>
+        <v>2441033958.799031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1276713391905994</v>
+        <v>0.1220868043294186</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0559128249845694</v>
+        <v>0.04414743422365584</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1015536915.753072</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3128861774.068743</v>
+        <v>2315719099.862327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09968370764786476</v>
+        <v>0.08535593752876017</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04063558938336965</v>
+        <v>0.04493600667131056</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>146</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1564430839.513741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3523378729.663208</v>
+        <v>3742579492.765469</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1529947649905187</v>
+        <v>0.1918101084901494</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02026236388447989</v>
+        <v>0.02875819195270131</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>148</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1761689475.866999</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1949235555.07429</v>
+        <v>1648096903.349949</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1407558715759852</v>
+        <v>0.1836869201666809</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03681337454847624</v>
+        <v>0.03614898168149967</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>974617811.2050205</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4412004736.320553</v>
+        <v>4103379879.619468</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2150897475372826</v>
+        <v>0.2005492831538769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03591184690836847</v>
+        <v>0.03591810806511771</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>196</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2206002421.952634</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3805856328.227465</v>
+        <v>2971996598.896293</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1695324451253529</v>
+        <v>0.1528875036113024</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04298644110411357</v>
+        <v>0.04808047500927226</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>192</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1902928163.253182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3156762254.338453</v>
+        <v>2188464403.880545</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1505670823420482</v>
+        <v>0.1347313648293695</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04447530010797544</v>
+        <v>0.03767449334842139</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>158</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1578381159.568483</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4895029174.851789</v>
+        <v>4857127792.430051</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1008554464195731</v>
+        <v>0.09836301200607218</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03044683933622617</v>
+        <v>0.02518615485709398</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>156</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2447514596.916756</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3048415827.821841</v>
+        <v>3015462490.022336</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1537769109491887</v>
+        <v>0.125241340240389</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03137660509279706</v>
+        <v>0.04393885866271238</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>150</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1524207944.863302</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1261572944.327236</v>
+        <v>1112897076.655859</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07768837452136358</v>
+        <v>0.09126721639694094</v>
       </c>
       <c r="G15" t="n">
-        <v>0.039091223283196</v>
+        <v>0.04776672049155706</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>630786503.6223415</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2753549881.211185</v>
+        <v>2009917827.166146</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07788814950694831</v>
+        <v>0.1080260874601963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04067446154143126</v>
+        <v>0.0355568321094766</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>95</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1376774948.785707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4248656124.684549</v>
+        <v>3361691462.220395</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1610222335639053</v>
+        <v>0.1606384524892932</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03564304265671531</v>
+        <v>0.04340027211765872</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>137</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2124328084.628256</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3805563586.547377</v>
+        <v>3016896687.722212</v>
       </c>
       <c r="F18" t="n">
-        <v>0.111366809128435</v>
+        <v>0.1464820325688199</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02877582196635746</v>
+        <v>0.02394429058867597</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>152</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1902781765.28282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1009195655.181227</v>
+        <v>966203460.2070096</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1668387731032961</v>
+        <v>0.1753843506491805</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0249425531729737</v>
+        <v>0.02598541116099565</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>504597859.1247553</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1844474261.297006</v>
+        <v>2385520117.992257</v>
       </c>
       <c r="F20" t="n">
-        <v>0.108426871969073</v>
+        <v>0.1297276044872179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02894807933643061</v>
+        <v>0.03099359623334991</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>922237173.5647285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1812193448.747354</v>
+        <v>1825824200.713099</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08971989455200506</v>
+        <v>0.07440051088752123</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02842863618998376</v>
+        <v>0.02999399732062316</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>906096778.3200188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3895341683.931535</v>
+        <v>3437715946.048684</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09655016304393337</v>
+        <v>0.1414586048804508</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03664078757479364</v>
+        <v>0.03661139569363744</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1947670849.899691</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1167005340.660765</v>
+        <v>1052369989.817549</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1665251347453064</v>
+        <v>0.1596339246597772</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0366749000602339</v>
+        <v>0.03542813598306793</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>583502712.4143491</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2585125169.490525</v>
+        <v>3606943540.307727</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1154295982198594</v>
+        <v>0.1162629014587318</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03600996162661953</v>
+        <v>0.03053463942345692</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>136</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1292562647.89227</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1155830863.157551</v>
+        <v>950799386.7706009</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0965033978428277</v>
+        <v>0.1127201836315599</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02295307340327645</v>
+        <v>0.02992985774306381</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>577915459.7225751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1318227673.2886</v>
+        <v>1317794689.442565</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1080761263363727</v>
+        <v>0.1071417529329985</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02875450987083892</v>
+        <v>0.03031513084007519</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>659113886.6068127</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4235467627.044462</v>
+        <v>2958392795.954371</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1488723968771578</v>
+        <v>0.1285097160169049</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02242838862313024</v>
+        <v>0.02136978437342826</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>110</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2117733811.998748</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2922545856.283337</v>
+        <v>2868774266.627765</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1127000462376812</v>
+        <v>0.1424094676078975</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03743147450421047</v>
+        <v>0.03854384819182124</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>150</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1461272932.652425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4384054200.075981</v>
+        <v>4408295962.485487</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1191766605101585</v>
+        <v>0.1186030671132049</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0401790690789899</v>
+        <v>0.03184773939286679</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>205</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2192027090.275753</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2179078149.684165</v>
+        <v>1926781800.724376</v>
       </c>
       <c r="F30" t="n">
-        <v>0.115280313096694</v>
+        <v>0.1056124864498406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03044834736799034</v>
+        <v>0.03611618345993022</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1089539132.718244</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1304119557.671513</v>
+        <v>966703808.8027397</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1027147041865346</v>
+        <v>0.09636617176925072</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03797685940060438</v>
+        <v>0.05122488787665538</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>652059705.80487</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1435646437.834895</v>
+        <v>1338562154.70793</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08266488219191633</v>
+        <v>0.1023268284842388</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02492238745193856</v>
+        <v>0.03489375717609335</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>717823273.9711049</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2785318028.260479</v>
+        <v>1891916984.604511</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1744843603785192</v>
+        <v>0.1621024012276683</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06058956461618956</v>
+        <v>0.06104794657346645</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>142</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1392659028.046186</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1350701128.391766</v>
+        <v>1266900325.87808</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1073786897029011</v>
+        <v>0.1134852492749525</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02333004615328182</v>
+        <v>0.0184737958207964</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>675350544.6002502</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1325756856.548317</v>
+        <v>1171733975.329681</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1064252183462021</v>
+        <v>0.1142577957215851</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02902388061246744</v>
+        <v>0.04465480924822399</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>662878375.4411385</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2476620602.511457</v>
+        <v>2931302444.971362</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1749106267228726</v>
+        <v>0.1151692919383972</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02207699175713936</v>
+        <v>0.02082678395205581</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1238310325.141933</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2182850220.484949</v>
+        <v>2628016502.867743</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09061867812989093</v>
+        <v>0.08223690320865849</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02914002689151372</v>
+        <v>0.02642818853937659</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>125</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1091425162.704149</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1373880324.966833</v>
+        <v>1949717273.899638</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09907412717456876</v>
+        <v>0.1108201232808209</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03646035448463251</v>
+        <v>0.03278771719251284</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>686940229.5722107</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1983207926.61307</v>
+        <v>1888865758.338622</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1536262867387908</v>
+        <v>0.1303485561824256</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0250999667288479</v>
+        <v>0.03214814543517917</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>991603960.3984822</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1791622166.382411</v>
+        <v>1115157087.299075</v>
       </c>
       <c r="F40" t="n">
-        <v>0.11609130603299</v>
+        <v>0.1159844665173862</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04953311140275825</v>
+        <v>0.05278430701027879</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>895810976.3952066</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2794966143.778208</v>
+        <v>2726932691.092372</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1006888949551749</v>
+        <v>0.1048762409288816</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03936067110012604</v>
+        <v>0.0356583227661962</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>112</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1397483068.315262</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3779019467.694421</v>
+        <v>3158375427.827897</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09442767719050936</v>
+        <v>0.1203716217410506</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03925603136728037</v>
+        <v>0.03527748197152523</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>151</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1889509747.917189</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2068894925.604056</v>
+        <v>2008089814.103136</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1442789177285068</v>
+        <v>0.1242505195608861</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02382603606217768</v>
+        <v>0.0236009325116496</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>162</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1034447554.845106</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1970585482.535339</v>
+        <v>1758167901.068985</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08690377065607903</v>
+        <v>0.09389451918743445</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03638809840188678</v>
+        <v>0.03458281482859839</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>985292841.7651089</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2054397934.038539</v>
+        <v>1959724404.575606</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1800353511889252</v>
+        <v>0.1223832848753494</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03964163818229922</v>
+        <v>0.04961537499371486</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1027198963.391935</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4252257204.577774</v>
+        <v>4740944759.47793</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1603578554561966</v>
+        <v>0.1683487851780211</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04282125875026296</v>
+        <v>0.04764165233853519</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>165</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2126128586.324859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3949231869.171787</v>
+        <v>4564000261.806425</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1438948559911935</v>
+        <v>0.1843109650888589</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05065560401309233</v>
+        <v>0.04386221684561908</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1974615930.870184</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2879654604.46931</v>
+        <v>3208964902.567852</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08834658399804356</v>
+        <v>0.06923083198772004</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03714281813821999</v>
+        <v>0.02535258348980798</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>151</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1439827401.771906</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1631726839.508423</v>
+        <v>1433017894.09214</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1188563703049342</v>
+        <v>0.1788898066128805</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0273396300530461</v>
+        <v>0.03723661541252423</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>815863431.3186752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2883336176.275107</v>
+        <v>2807580043.329689</v>
       </c>
       <c r="F50" t="n">
-        <v>0.121382450712454</v>
+        <v>0.1369895341478891</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04430067889651455</v>
+        <v>0.05290823822523798</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>159</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1441668156.279301</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1171691338.770433</v>
+        <v>1504744176.828654</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1306206545489704</v>
+        <v>0.1424326276713092</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04721158842852232</v>
+        <v>0.04515201925319312</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>585845725.5530902</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4996028306.301329</v>
+        <v>4627066371.772038</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1137722297790676</v>
+        <v>0.1311851967244592</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03850227082236271</v>
+        <v>0.05886372195704428</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>192</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2498014151.035819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2537202160.23781</v>
+        <v>2419154052.592556</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1508746103921282</v>
+        <v>0.1978203836929924</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02526252958124931</v>
+        <v>0.03498234802070277</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>134</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1268601144.530034</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3653002832.775364</v>
+        <v>3015439534.928798</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1503955680339564</v>
+        <v>0.1038180780907951</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03810743348056098</v>
+        <v>0.03892024598843002</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>151</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1826501453.241755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4513589762.891626</v>
+        <v>4255459077.72624</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1746197372215889</v>
+        <v>0.1516203189797273</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03263726216496248</v>
+        <v>0.02901243490767835</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>133</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2256794879.042258</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1219383542.537199</v>
+        <v>1755699904.632841</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1378064267596674</v>
+        <v>0.1162694234412608</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04029562609987539</v>
+        <v>0.03541089731810112</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>609691855.1362695</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3713301365.08556</v>
+        <v>3697653473.774492</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1181924921094688</v>
+        <v>0.1196369437170521</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02612078394291942</v>
+        <v>0.02302846147030081</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>148</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1856650746.857931</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1367160354.201688</v>
+        <v>1309916073.730609</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1235961984884623</v>
+        <v>0.1312023088437914</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02418857318539884</v>
+        <v>0.02947985922898833</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>683580220.3698262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4157712687.146645</v>
+        <v>4000138970.603628</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1190457579403307</v>
+        <v>0.1116373681719445</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04151427690427092</v>
+        <v>0.04185626529482102</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2078856311.918455</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2356935895.218016</v>
+        <v>3267962538.438775</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1778902820740913</v>
+        <v>0.1287693122128055</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02875919096706352</v>
+        <v>0.02561842363556814</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>144</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1178467950.528031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2446647744.280339</v>
+        <v>2443803373.919847</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1638264682743107</v>
+        <v>0.1744575023480342</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02859775771816812</v>
+        <v>0.03084202785083975</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>159</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1223323904.810331</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1638650514.682837</v>
+        <v>1943333255.251885</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1220527955232174</v>
+        <v>0.1549538835533847</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03855404221898741</v>
+        <v>0.04178827341552136</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>819325261.2392792</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3776519759.753856</v>
+        <v>3955285287.480385</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09895984016270501</v>
+        <v>0.09767412354659115</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04617642591125787</v>
+        <v>0.03887549480132695</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1888259952.233194</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5297970299.514932</v>
+        <v>5160481831.58535</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1712515647265722</v>
+        <v>0.1407282389999247</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03218123887023296</v>
+        <v>0.0225059580613319</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>145</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2648985276.940271</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5304575500.380926</v>
+        <v>5732956167.419781</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1498443092432512</v>
+        <v>0.1369392551760283</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03174167159250393</v>
+        <v>0.03192858983588368</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>167</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2652287690.948851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5697140643.544679</v>
+        <v>4510492511.56942</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1247485480315026</v>
+        <v>0.1324571248736341</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04048477970399351</v>
+        <v>0.04738967371914021</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>135</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2848570386.282866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2143864059.960269</v>
+        <v>2514329216.725161</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07086306579724481</v>
+        <v>0.08073229691229176</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04145297685128235</v>
+        <v>0.04236307255088829</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>149</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1071932120.757168</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5861861495.666615</v>
+        <v>4532843111.99262</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1061700079273475</v>
+        <v>0.1417338345825926</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04299841795370399</v>
+        <v>0.0328908966502189</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>148</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2930930856.468297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2412669170.544717</v>
+        <v>1557186426.423585</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1617510622586404</v>
+        <v>0.1181207472033337</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04031641684353875</v>
+        <v>0.05023163549034957</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1206334643.604595</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3169118741.331367</v>
+        <v>2610791667.647275</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08706966355043903</v>
+        <v>0.07828408700069417</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03986129064401448</v>
+        <v>0.04524424710444323</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1584559358.640967</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5182576617.912544</v>
+        <v>4824521636.754266</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1631349085291171</v>
+        <v>0.1201364518515464</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02820356382202441</v>
+        <v>0.02532221224832803</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>169</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2591288428.28891</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1377395839.013435</v>
+        <v>2097879103.526101</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07657359849998691</v>
+        <v>0.1054446480025883</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05296553255272492</v>
+        <v>0.04645945621628114</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>688697966.3018873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2727361046.744153</v>
+        <v>3110805356.50649</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06831788158422192</v>
+        <v>0.08514754776116346</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04147510925481153</v>
+        <v>0.03320387898624488</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>175</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1363680544.347474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3989584775.491492</v>
+        <v>2641101876.217904</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1175901755732901</v>
+        <v>0.1160905592796191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03533030848471326</v>
+        <v>0.02272663445065689</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>159</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1994792367.622683</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1972660259.000853</v>
+        <v>2032227714.876198</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1199230160992425</v>
+        <v>0.1053007482218265</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03658025621905153</v>
+        <v>0.03686329914857857</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>986330096.2183151</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5093828990.170908</v>
+        <v>5012376995.983618</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09203727723992669</v>
+        <v>0.09300692139097531</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02289289645780983</v>
+        <v>0.03199590742963381</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2546914525.710192</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1708770790.507045</v>
+        <v>1754885402.897006</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1226504960945279</v>
+        <v>0.1140722158778583</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02979941066372445</v>
+        <v>0.02753124810218626</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>854385413.8227512</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4290911400.632597</v>
+        <v>3256945530.404191</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08731782807607197</v>
+        <v>0.09056882384812463</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04795801474550524</v>
+        <v>0.04676029997564787</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>162</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2145455645.230876</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1703628338.486488</v>
+        <v>1734494032.534518</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1575199273590815</v>
+        <v>0.1324194032666422</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04003569406299194</v>
+        <v>0.02630397548799443</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>851814239.088064</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3700288015.466559</v>
+        <v>3963076494.133716</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09775836199721503</v>
+        <v>0.1027384913552206</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03347781072009687</v>
+        <v>0.02644859545710456</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1850143992.297697</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5209187008.598595</v>
+        <v>3552483023.383254</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09687822246781892</v>
+        <v>0.09794771865014117</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03252211276922685</v>
+        <v>0.02278179935107887</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2604593512.422147</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4185273943.967647</v>
+        <v>5171861681.17522</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1314814172168678</v>
+        <v>0.2112803958273385</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02388546329671567</v>
+        <v>0.02548426253760719</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>162</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2092637001.416762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1786616356.137704</v>
+        <v>1818482721.410992</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1456982229144952</v>
+        <v>0.1003194355362305</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04477065876029733</v>
+        <v>0.03760423768461658</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>893308136.8703424</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2199090143.86986</v>
+        <v>1769169565.01644</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1143213239481659</v>
+        <v>0.1075153411772586</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03411085343768165</v>
+        <v>0.05067114415560615</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1099545047.812245</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2339195311.390535</v>
+        <v>3454689596.619073</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1570172512478542</v>
+        <v>0.15907834462909</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03658379311355864</v>
+        <v>0.04505054814517859</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>173</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1169597642.895035</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2667500263.859395</v>
+        <v>2056797057.336643</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1060793363481651</v>
+        <v>0.1340297700726215</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0231958024552632</v>
+        <v>0.02177686383223368</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>58</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1333750252.404824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1092041938.756214</v>
+        <v>930867897.5916562</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1821905106942892</v>
+        <v>0.1149687241595065</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04075456954473995</v>
+        <v>0.03589048513865185</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>546020997.3059261</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2437679757.798555</v>
+        <v>2887571522.897684</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1605620199323642</v>
+        <v>0.1302562590878005</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03126372198234354</v>
+        <v>0.03788146449909516</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>185</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1218839853.782383</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3097796576.019362</v>
+        <v>2180511916.22734</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1389613465628706</v>
+        <v>0.1552639047220338</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02859281149063612</v>
+        <v>0.03210065259670149</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>157</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1548898318.960246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1457547402.075409</v>
+        <v>1453605446.228901</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1073206027692738</v>
+        <v>0.1007316574575847</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04689401511147178</v>
+        <v>0.04851083356162276</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>728773672.0009452</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1842572643.358528</v>
+        <v>1935946927.368164</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1260079337136807</v>
+        <v>0.1312063236211239</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04814493021598825</v>
+        <v>0.0589209654834138</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>921286314.9544034</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2409422245.510713</v>
+        <v>2123887338.093045</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08447504528779951</v>
+        <v>0.0728530830745401</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03233202801346541</v>
+        <v>0.03735692624888033</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>128</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1204711099.931845</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4709695527.227388</v>
+        <v>3579291149.318474</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08576233577242644</v>
+        <v>0.08879550182980715</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04581312839875303</v>
+        <v>0.04555893956647206</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2354847718.369005</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2049440212.334495</v>
+        <v>1812856920.712772</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1525774258560353</v>
+        <v>0.1326058618373119</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03113570239487068</v>
+        <v>0.04240503596753609</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1024720110.945649</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3182188066.530946</v>
+        <v>2245852397.639288</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1046143867291204</v>
+        <v>0.1247563784574517</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03842306716009944</v>
+        <v>0.03720360271732929</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>112</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1591094019.79945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1858335030.570194</v>
+        <v>1850105984.61975</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1002545015886053</v>
+        <v>0.1233354876502909</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04357561152970896</v>
+        <v>0.03355304818228837</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>929167517.4012173</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4458067034.281034</v>
+        <v>4199280647.517003</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1721073265767892</v>
+        <v>0.1737775087349693</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02190775025546608</v>
+        <v>0.01948255051710171</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>149</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2229033610.388666</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3930777529.990294</v>
+        <v>3044859870.774815</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08085785958261887</v>
+        <v>0.09947155918279804</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02514765535052018</v>
+        <v>0.02523120126710249</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>125</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1965388812.820608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2438957378.269834</v>
+        <v>2500725284.9698</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09592818042924331</v>
+        <v>0.09772007077545869</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03438772067707984</v>
+        <v>0.02691188420465674</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1219478634.509295</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2900213195.559538</v>
+        <v>4598519911.569592</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1341935402702442</v>
+        <v>0.1399796829384157</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01754264885277427</v>
+        <v>0.01798215254810098</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>142</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1450106580.66162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2878830408.669871</v>
+        <v>2777039737.688384</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1677087513618211</v>
+        <v>0.2204090347967826</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04293972472347719</v>
+        <v>0.04254502178021265</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>191</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1439415277.374418</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_465.xlsx
+++ b/output/fit_clients/fit_round_465.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2388462229.664138</v>
+        <v>1839964181.183949</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07293126635128715</v>
+        <v>0.07539635246288329</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02953416318429665</v>
+        <v>0.03868638386968334</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1913656263.226682</v>
+        <v>2289799226.963133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1803297950783042</v>
+        <v>0.1141565127211311</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04181456747339988</v>
+        <v>0.04991883939460177</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4209862774.114856</v>
+        <v>4648694070.266836</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1653624184924649</v>
+        <v>0.1487527653470782</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03702498125154208</v>
+        <v>0.02491764151333263</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2747929442.117933</v>
+        <v>3879219329.583022</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0755985928988204</v>
+        <v>0.07231010603166813</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04000255295970238</v>
+        <v>0.03567075911278542</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2441033958.799031</v>
+        <v>1953088103.774164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1220868043294186</v>
+        <v>0.1064518641771216</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04414743422365584</v>
+        <v>0.04940493140448226</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2315719099.862327</v>
+        <v>2965327399.949679</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08535593752876017</v>
+        <v>0.06601548021329501</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04493600667131056</v>
+        <v>0.0339147149848939</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3742579492.765469</v>
+        <v>3100047946.14116</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1918101084901494</v>
+        <v>0.1610059266374662</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02875819195270131</v>
+        <v>0.02956650597624149</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1648096903.349949</v>
+        <v>2271958747.637422</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1836869201666809</v>
+        <v>0.1217088879413579</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03614898168149967</v>
+        <v>0.02561654539958969</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4103379879.619468</v>
+        <v>5135503602.721266</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2005492831538769</v>
+        <v>0.2041223921824764</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03591810806511771</v>
+        <v>0.04339772652531518</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2971996598.896293</v>
+        <v>3005143309.847656</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1528875036113024</v>
+        <v>0.1760117553028953</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04808047500927226</v>
+        <v>0.04753379776586656</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2188464403.880545</v>
+        <v>2745595111.452302</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1347313648293695</v>
+        <v>0.1777380805109897</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03767449334842139</v>
+        <v>0.03548644361800383</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4857127792.430051</v>
+        <v>4956901408.964311</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09836301200607218</v>
+        <v>0.09885000198626046</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02518615485709398</v>
+        <v>0.02224074859366269</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3015462490.022336</v>
+        <v>3381990350.725119</v>
       </c>
       <c r="F14" t="n">
-        <v>0.125241340240389</v>
+        <v>0.1220007172218385</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04393885866271238</v>
+        <v>0.04267454047529238</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1112897076.655859</v>
+        <v>1142665696.373703</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09126721639694094</v>
+        <v>0.1061472021308964</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04776672049155706</v>
+        <v>0.04764889715203513</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2009917827.166146</v>
+        <v>2209977165.083082</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1080260874601963</v>
+        <v>0.09741433320862072</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0355568321094766</v>
+        <v>0.04832659039786445</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3361691462.220395</v>
+        <v>4925447224.043011</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1606384524892932</v>
+        <v>0.1240335891879684</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04340027211765872</v>
+        <v>0.03497322015327515</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3016896687.722212</v>
+        <v>3215965666.380718</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1464820325688199</v>
+        <v>0.1425784582796644</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02394429058867597</v>
+        <v>0.03413974302569736</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>966203460.2070096</v>
+        <v>1091141417.553559</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1753843506491805</v>
+        <v>0.1765164348274408</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02598541116099565</v>
+        <v>0.01946799113333481</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2385520117.992257</v>
+        <v>2438158843.533762</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1297276044872179</v>
+        <v>0.1110072649334928</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03099359623334991</v>
+        <v>0.0295406175703793</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1825824200.713099</v>
+        <v>2580908916.702914</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07440051088752123</v>
+        <v>0.07472110422863015</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02999399732062316</v>
+        <v>0.04452573628668675</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3437715946.048684</v>
+        <v>3609912467.030078</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1414586048804508</v>
+        <v>0.09161297970282227</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03661139569363744</v>
+        <v>0.03922617267778068</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1052369989.817549</v>
+        <v>982424996.4886451</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1596339246597772</v>
+        <v>0.133363938856576</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03542813598306793</v>
+        <v>0.0536551454077229</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3606943540.307727</v>
+        <v>3317720865.870827</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1162629014587318</v>
+        <v>0.1286644763525182</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03053463942345692</v>
+        <v>0.02443013419510816</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>950799386.7706009</v>
+        <v>980850329.3722475</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1127201836315599</v>
+        <v>0.08439904182379922</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02992985774306381</v>
+        <v>0.02684582414671968</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1317794689.442565</v>
+        <v>1079334088.115302</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1071417529329985</v>
+        <v>0.08138232036765873</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03031513084007519</v>
+        <v>0.03427318807104619</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2958392795.954371</v>
+        <v>4220952110.512615</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1285097160169049</v>
+        <v>0.1335631918568261</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02136978437342826</v>
+        <v>0.01769225155063224</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2868774266.627765</v>
+        <v>3763661197.675963</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1424094676078975</v>
+        <v>0.1369925328492501</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03854384819182124</v>
+        <v>0.04499954126547963</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4408295962.485487</v>
+        <v>4280418635.273365</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1186030671132049</v>
+        <v>0.1405693825792583</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03184773939286679</v>
+        <v>0.02923247255254908</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1926781800.724376</v>
+        <v>1450773542.314172</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1056124864498406</v>
+        <v>0.1013014827333015</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03611618345993022</v>
+        <v>0.03321300230437928</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>966703808.8027397</v>
+        <v>967771818.2638193</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09636617176925072</v>
+        <v>0.09832759183337188</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05122488787665538</v>
+        <v>0.04983177672332736</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1338562154.70793</v>
+        <v>1384507668.27701</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1023268284842388</v>
+        <v>0.1100968252904422</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03489375717609335</v>
+        <v>0.02951975719615006</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1891916984.604511</v>
+        <v>2893529608.456191</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1621024012276683</v>
+        <v>0.1440993077608734</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06104794657346645</v>
+        <v>0.03876521383108033</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1266900325.87808</v>
+        <v>1263629649.450362</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1134852492749525</v>
+        <v>0.08856747426099564</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0184737958207964</v>
+        <v>0.0199743442860619</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1171733975.329681</v>
+        <v>932573069.3980405</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1142577957215851</v>
+        <v>0.08751585719570125</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04465480924822399</v>
+        <v>0.03823452222993333</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2931302444.971362</v>
+        <v>2060597823.945884</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1151692919383972</v>
+        <v>0.1380187151021813</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02082678395205581</v>
+        <v>0.01991628411985032</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2628016502.867743</v>
+        <v>2510322293.979963</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08223690320865849</v>
+        <v>0.0763698927085473</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02642818853937659</v>
+        <v>0.02961875667469248</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1949717273.899638</v>
+        <v>1666284178.279287</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1108201232808209</v>
+        <v>0.09299516898994786</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03278771719251284</v>
+        <v>0.0328812537211302</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1888865758.338622</v>
+        <v>1721595816.209452</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1303485561824256</v>
+        <v>0.1330910655904165</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03214814543517917</v>
+        <v>0.02671084811845057</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1115157087.299075</v>
+        <v>1219963745.454211</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1159844665173862</v>
+        <v>0.1368317765540032</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05278430701027879</v>
+        <v>0.05912182888378925</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2726932691.092372</v>
+        <v>2132894906.824384</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1048762409288816</v>
+        <v>0.1232519402672274</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0356583227661962</v>
+        <v>0.04406014032880574</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3158375427.827897</v>
+        <v>3934806427.181705</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1203716217410506</v>
+        <v>0.08836337832952865</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03527748197152523</v>
+        <v>0.03574119088141992</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2008089814.103136</v>
+        <v>1875562276.093592</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1242505195608861</v>
+        <v>0.1587698299496159</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0236009325116496</v>
+        <v>0.02176869792025017</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1758167901.068985</v>
+        <v>2334625118.402582</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09389451918743445</v>
+        <v>0.09805552282462406</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03458281482859839</v>
+        <v>0.03553654343563008</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1959724404.575606</v>
+        <v>1780376584.490793</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1223832848753494</v>
+        <v>0.1285114060323327</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04961537499371486</v>
+        <v>0.05551536424568192</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4740944759.47793</v>
+        <v>4767364511.568271</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1683487851780211</v>
+        <v>0.1441965636575477</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04764165233853519</v>
+        <v>0.04112738020943475</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4564000261.806425</v>
+        <v>3345930118.485094</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1843109650888589</v>
+        <v>0.1980461968940047</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04386221684561908</v>
+        <v>0.05200411372247776</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3208964902.567852</v>
+        <v>3856176595.349344</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06923083198772004</v>
+        <v>0.08220030788579882</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02535258348980798</v>
+        <v>0.02956148016390887</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1433017894.09214</v>
+        <v>1654254245.121441</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1788898066128805</v>
+        <v>0.1560313356419821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03723661541252423</v>
+        <v>0.03492117771221363</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2807580043.329689</v>
+        <v>3966309719.887882</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1369895341478891</v>
+        <v>0.1543522081819365</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05290823822523798</v>
+        <v>0.05179954008610293</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1504744176.828654</v>
+        <v>964836400.9532728</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1424326276713092</v>
+        <v>0.1599894636619568</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04515201925319312</v>
+        <v>0.04823663700913224</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4627066371.772038</v>
+        <v>4110142698.881474</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1311851967244592</v>
+        <v>0.1257191049970098</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05886372195704428</v>
+        <v>0.038171410851621</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2419154052.592556</v>
+        <v>3755534458.883409</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1978203836929924</v>
+        <v>0.1609763202258063</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03498234802070277</v>
+        <v>0.03233469800860485</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3015439534.928798</v>
+        <v>3024368432.377528</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1038180780907951</v>
+        <v>0.14968010301446</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03892024598843002</v>
+        <v>0.04844178436237306</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4255459077.72624</v>
+        <v>4165985809.603834</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1516203189797273</v>
+        <v>0.1353886136837321</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02901243490767835</v>
+        <v>0.02247780099015521</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1755699904.632841</v>
+        <v>1844997560.577597</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1162694234412608</v>
+        <v>0.164910027727035</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03541089731810112</v>
+        <v>0.05526439004558945</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3697653473.774492</v>
+        <v>3439877030.454454</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1196369437170521</v>
+        <v>0.1444976938481444</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02302846147030081</v>
+        <v>0.02636615648844515</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1309916073.730609</v>
+        <v>1599630818.196509</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1312023088437914</v>
+        <v>0.1281320662036778</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02947985922898833</v>
+        <v>0.03772301853155435</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4000138970.603628</v>
+        <v>5181631019.273032</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1116373681719445</v>
+        <v>0.09421009518281555</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04185626529482102</v>
+        <v>0.04346571948782235</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3267962538.438775</v>
+        <v>2477494715.136722</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1287693122128055</v>
+        <v>0.1329360428933328</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02561842363556814</v>
+        <v>0.03094590458062098</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2443803373.919847</v>
+        <v>2731254776.177448</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1744575023480342</v>
+        <v>0.1262101855886895</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03084202785083975</v>
+        <v>0.02055866263000824</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1943333255.251885</v>
+        <v>1439020380.147828</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1549538835533847</v>
+        <v>0.1290619729592039</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04178827341552136</v>
+        <v>0.04544172673706621</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3955285287.480385</v>
+        <v>4591471701.075825</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09767412354659115</v>
+        <v>0.0742287703837675</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03887549480132695</v>
+        <v>0.0287039937559492</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5160481831.58535</v>
+        <v>4638234180.440185</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1407282389999247</v>
+        <v>0.1482337479226889</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0225059580613319</v>
+        <v>0.02897726546201299</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5732956167.419781</v>
+        <v>5191762983.184488</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1369392551760283</v>
+        <v>0.1256664616292265</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03192858983588368</v>
+        <v>0.02040594982833822</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4510492511.56942</v>
+        <v>3725935052.017587</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1324571248736341</v>
+        <v>0.1576056707929979</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04738967371914021</v>
+        <v>0.03086094144653136</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2514329216.725161</v>
+        <v>3002344153.357035</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08073229691229176</v>
+        <v>0.07089163817162543</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04236307255088829</v>
+        <v>0.05058663834079078</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4532843111.99262</v>
+        <v>4077057783.745396</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1417338345825926</v>
+        <v>0.1484903404155032</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0328908966502189</v>
+        <v>0.04777030326031127</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1557186426.423585</v>
+        <v>2287795210.234789</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1181207472033337</v>
+        <v>0.1643800470725597</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05023163549034957</v>
+        <v>0.05597864465529134</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2610791667.647275</v>
+        <v>2996879411.857254</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07828408700069417</v>
+        <v>0.06846831381895052</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04524424710444323</v>
+        <v>0.03646300742943468</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4824521636.754266</v>
+        <v>4195435006.04093</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1201364518515464</v>
+        <v>0.1603214140415063</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02532221224832803</v>
+        <v>0.02997788129500261</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2097879103.526101</v>
+        <v>2151426823.026014</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1054446480025883</v>
+        <v>0.06939606369047167</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04645945621628114</v>
+        <v>0.03545999738062426</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3110805356.50649</v>
+        <v>3015514707.370625</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08514754776116346</v>
+        <v>0.07948558820050816</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03320387898624488</v>
+        <v>0.03919020516105813</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2641101876.217904</v>
+        <v>3099902403.178423</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1160905592796191</v>
+        <v>0.1242775927680928</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02272663445065689</v>
+        <v>0.02395614338220889</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2032227714.876198</v>
+        <v>2141501968.303878</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1053007482218265</v>
+        <v>0.1450938096589451</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03686329914857857</v>
+        <v>0.03258683456071389</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5012376995.983618</v>
+        <v>4839552831.128549</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09300692139097531</v>
+        <v>0.1177555046929562</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03199590742963381</v>
+        <v>0.03058929612565376</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1754885402.897006</v>
+        <v>1773222166.721272</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1140722158778583</v>
+        <v>0.1594083493164526</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02753124810218626</v>
+        <v>0.0289604148484374</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3256945530.404191</v>
+        <v>2994935949.870136</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09056882384812463</v>
+        <v>0.1321967113991364</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04676029997564787</v>
+        <v>0.05691836202646615</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1734494032.534518</v>
+        <v>1490683606.428657</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1324194032666422</v>
+        <v>0.1635390785099095</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02630397548799443</v>
+        <v>0.03709532352190761</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3963076494.133716</v>
+        <v>5220984515.292764</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1027384913552206</v>
+        <v>0.08130292718230216</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02644859545710456</v>
+        <v>0.03680622124522448</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3552483023.383254</v>
+        <v>4234277285.646601</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09794771865014117</v>
+        <v>0.09489621472642269</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02278179935107887</v>
+        <v>0.0211591892554621</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5171861681.17522</v>
+        <v>4807809197.040967</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2112803958273385</v>
+        <v>0.1535708581743374</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02548426253760719</v>
+        <v>0.02188589797313381</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1818482721.410992</v>
+        <v>1653324585.891749</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1003194355362305</v>
+        <v>0.1163764390633536</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03760423768461658</v>
+        <v>0.04427062379157751</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1769169565.01644</v>
+        <v>1777008502.426178</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1075153411772586</v>
+        <v>0.08160596481767547</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05067114415560615</v>
+        <v>0.03154395288888307</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3454689596.619073</v>
+        <v>3045030556.045725</v>
       </c>
       <c r="F85" t="n">
-        <v>0.15907834462909</v>
+        <v>0.1358513397405542</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04505054814517859</v>
+        <v>0.04722729199606899</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2056797057.336643</v>
+        <v>2099649108.199479</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1340297700726215</v>
+        <v>0.1468233901139195</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02177686383223368</v>
+        <v>0.01819398820350559</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>930867897.5916562</v>
+        <v>1484929739.848471</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1149687241595065</v>
+        <v>0.1561019280479441</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03589048513865185</v>
+        <v>0.03919578173604694</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2887571522.897684</v>
+        <v>2654640123.838374</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1302562590878005</v>
+        <v>0.1714863790426521</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03788146449909516</v>
+        <v>0.02407987870576122</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2180511916.22734</v>
+        <v>2146790551.268309</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1552639047220338</v>
+        <v>0.1562082021845546</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03210065259670149</v>
+        <v>0.04131098057414645</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1453605446.228901</v>
+        <v>2073148763.449111</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1007316574575847</v>
+        <v>0.1355515713573811</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04851083356162276</v>
+        <v>0.04899538008966051</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1935946927.368164</v>
+        <v>1339242613.621701</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1312063236211239</v>
+        <v>0.162702713566864</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0589209654834138</v>
+        <v>0.04379532780971407</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2123887338.093045</v>
+        <v>1861520566.22493</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0728530830745401</v>
+        <v>0.07876753672697634</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03735692624888033</v>
+        <v>0.04398188792089922</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3579291149.318474</v>
+        <v>4947623583.097902</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08879550182980715</v>
+        <v>0.08819327763353896</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04555893956647206</v>
+        <v>0.05164621041683711</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1812856920.712772</v>
+        <v>2082520841.381453</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1326058618373119</v>
+        <v>0.1297081300058643</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04240503596753609</v>
+        <v>0.03185505207255427</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2245852397.639288</v>
+        <v>3065448137.297232</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1247563784574517</v>
+        <v>0.09953843000839364</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03720360271732929</v>
+        <v>0.0474428503319921</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1850105984.61975</v>
+        <v>2145164266.539402</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1233354876502909</v>
+        <v>0.1380334191203351</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03355304818228837</v>
+        <v>0.03364576885546805</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4199280647.517003</v>
+        <v>5073321285.673399</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1737775087349693</v>
+        <v>0.1206327909299677</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01948255051710171</v>
+        <v>0.02268846437604921</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3044859870.774815</v>
+        <v>2814996149.252322</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09947155918279804</v>
+        <v>0.07820402079097627</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02523120126710249</v>
+        <v>0.02737405620764896</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2500725284.9698</v>
+        <v>3032444201.906631</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09772007077545869</v>
+        <v>0.1441653146886757</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02691188420465674</v>
+        <v>0.03541030615816385</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4598519911.569592</v>
+        <v>4413530397.231985</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1399796829384157</v>
+        <v>0.1598307036461801</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01798215254810098</v>
+        <v>0.01766787715812144</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2777039737.688384</v>
+        <v>3403598609.17183</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2204090347967826</v>
+        <v>0.1343405723738646</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04254502178021265</v>
+        <v>0.04915847682553739</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_465.xlsx
+++ b/output/fit_clients/fit_round_465.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1839964181.183949</v>
+        <v>2169183318.310095</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07539635246288329</v>
+        <v>0.1014620549697771</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03868638386968334</v>
+        <v>0.04473403093659323</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2289799226.963133</v>
+        <v>1618083294.43701</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1141565127211311</v>
+        <v>0.176605882172145</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04991883939460177</v>
+        <v>0.04256973878895477</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4648694070.266836</v>
+        <v>4101168904.673889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1487527653470782</v>
+        <v>0.1220150463453358</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02491764151333263</v>
+        <v>0.03457737408084753</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>235</v>
+      </c>
+      <c r="J4" t="n">
+        <v>465</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3879219329.583022</v>
+        <v>4133343767.890778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07231010603166813</v>
+        <v>0.07732463779312178</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03567075911278542</v>
+        <v>0.04039407943832567</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>196</v>
+      </c>
+      <c r="J5" t="n">
+        <v>465</v>
+      </c>
+      <c r="K5" t="n">
+        <v>42.98228189879859</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1953088103.774164</v>
+        <v>1738138348.539301</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1064518641771216</v>
+        <v>0.1330587432023003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04940493140448226</v>
+        <v>0.05072351774908673</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2965327399.949679</v>
+        <v>2753740961.64868</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06601548021329501</v>
+        <v>0.09901078146809351</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0339147149848939</v>
+        <v>0.04356845003315794</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3100047946.14116</v>
+        <v>3282960885.553433</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1610059266374662</v>
+        <v>0.2015641499747126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02956650597624149</v>
+        <v>0.03302189344486353</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>132</v>
+      </c>
+      <c r="J8" t="n">
+        <v>464</v>
+      </c>
+      <c r="K8" t="n">
+        <v>32.73308864646515</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2271958747.637422</v>
+        <v>1568683773.700882</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1217088879413579</v>
+        <v>0.1308475143352808</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02561654539958969</v>
+        <v>0.03065717816079983</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5135503602.721266</v>
+        <v>5768503977.556944</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2041223921824764</v>
+        <v>0.1821139184035654</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04339772652531518</v>
+        <v>0.04538073410903356</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>358</v>
+      </c>
+      <c r="J10" t="n">
+        <v>464</v>
+      </c>
+      <c r="K10" t="n">
+        <v>31.26384286253457</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3005143309.847656</v>
+        <v>3922807735.637125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1760117553028953</v>
+        <v>0.1734429182414237</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04753379776586656</v>
+        <v>0.03562531085863992</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>193</v>
+      </c>
+      <c r="J11" t="n">
+        <v>465</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2745595111.452302</v>
+        <v>2836223722.288645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1777380805109897</v>
+        <v>0.1666237980763196</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03548644361800383</v>
+        <v>0.03564841043345572</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4956901408.964311</v>
+        <v>4250323642.096562</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09885000198626046</v>
+        <v>0.08419916249598113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02224074859366269</v>
+        <v>0.02515037001790837</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>241</v>
+      </c>
+      <c r="J13" t="n">
+        <v>465</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3381990350.725119</v>
+        <v>3172376456.259009</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1220007172218385</v>
+        <v>0.1630457418728157</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04267454047529238</v>
+        <v>0.03649875316106456</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>106</v>
+      </c>
+      <c r="J14" t="n">
+        <v>464</v>
+      </c>
+      <c r="K14" t="n">
+        <v>33.26561362047884</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1142665696.373703</v>
+        <v>1289319648.955823</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1061472021308964</v>
+        <v>0.08239932766642717</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04764889715203513</v>
+        <v>0.04383714267371026</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2209977165.083082</v>
+        <v>1945337122.395162</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09741433320862072</v>
+        <v>0.1075506991345073</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04832659039786445</v>
+        <v>0.03538755207953526</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4925447224.043011</v>
+        <v>4652646034.73378</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1240335891879684</v>
+        <v>0.1674421066988923</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03497322015327515</v>
+        <v>0.0456434449643452</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>227</v>
+      </c>
+      <c r="J17" t="n">
+        <v>465</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3215965666.380718</v>
+        <v>3226352718.187137</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1425784582796644</v>
+        <v>0.1538491588917492</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03413974302569736</v>
+        <v>0.02369436099341566</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>463</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1091141417.553559</v>
+        <v>1365821587.096262</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1765164348274408</v>
+        <v>0.1593407915967896</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01946799113333481</v>
+        <v>0.01953616538231069</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2438158843.533762</v>
+        <v>1780764399.720404</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1110072649334928</v>
+        <v>0.1551019498021623</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0295406175703793</v>
+        <v>0.02606418491722955</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2580908916.702914</v>
+        <v>1788014459.690709</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07472110422863015</v>
+        <v>0.07534657989777883</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04452573628668675</v>
+        <v>0.04197925087791446</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3609912467.030078</v>
+        <v>3542737975.567524</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09161297970282227</v>
+        <v>0.135711599833924</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03922617267778068</v>
+        <v>0.04747525781686025</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>135</v>
+      </c>
+      <c r="J22" t="n">
+        <v>465</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40.59061415071336</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>982424996.4886451</v>
+        <v>1507330040.186128</v>
       </c>
       <c r="F23" t="n">
-        <v>0.133363938856576</v>
+        <v>0.181568597683064</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0536551454077229</v>
+        <v>0.03348379290649577</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3317720865.870827</v>
+        <v>3331191170.841104</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1286644763525182</v>
+        <v>0.1162449921320634</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02443013419510816</v>
+        <v>0.03345891145449626</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>147</v>
+      </c>
+      <c r="J24" t="n">
+        <v>462</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>980850329.3722475</v>
+        <v>938882101.475742</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08439904182379922</v>
+        <v>0.0944951312057624</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02684582414671968</v>
+        <v>0.02182446761736445</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1079334088.115302</v>
+        <v>1263787186.469824</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08138232036765873</v>
+        <v>0.08816473936175498</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03427318807104619</v>
+        <v>0.03444734477443238</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4220952110.512615</v>
+        <v>3877711783.448704</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1335631918568261</v>
+        <v>0.09720820087152718</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01769225155063224</v>
+        <v>0.02052376752651605</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>204</v>
+      </c>
+      <c r="J27" t="n">
+        <v>465</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3763661197.675963</v>
+        <v>2772284462.615265</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1369925328492501</v>
+        <v>0.1312970253472578</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04499954126547963</v>
+        <v>0.03303121594758564</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>116</v>
+      </c>
+      <c r="J28" t="n">
+        <v>464</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26.68130700616363</v>
       </c>
     </row>
     <row r="29">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4280418635.273365</v>
+        <v>3891870169.679007</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1405693825792583</v>
+        <v>0.1333572548721831</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02923247255254908</v>
+        <v>0.03901180324579103</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>373</v>
+      </c>
+      <c r="J29" t="n">
+        <v>465</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1450773542.314172</v>
+        <v>2256540981.189629</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1013014827333015</v>
+        <v>0.1113648575960131</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03321300230437928</v>
+        <v>0.03238585089949602</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>967771818.2638193</v>
+        <v>1198250598.248557</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09832759183337188</v>
+        <v>0.09994473955330961</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04983177672332736</v>
+        <v>0.04892249714662504</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1384507668.27701</v>
+        <v>1400247908.034051</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1100968252904422</v>
+        <v>0.1197954553203754</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02951975719615006</v>
+        <v>0.02712623367427646</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2893529608.456191</v>
+        <v>2313383644.563431</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1440993077608734</v>
+        <v>0.1346814725593058</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03876521383108033</v>
+        <v>0.03905006896314061</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1263629649.450362</v>
+        <v>1135272179.479973</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08856747426099564</v>
+        <v>0.1203635083053202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0199743442860619</v>
+        <v>0.02134432857429053</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>932573069.3980405</v>
+        <v>1027674983.925695</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08751585719570125</v>
+        <v>0.09816297314282557</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03823452222993333</v>
+        <v>0.0441334917664234</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2060597823.945884</v>
+        <v>2102988992.569306</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1380187151021813</v>
+        <v>0.1119577152207343</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01991628411985032</v>
+        <v>0.02573753743048721</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2510322293.979963</v>
+        <v>2537274071.15473</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0763698927085473</v>
+        <v>0.1006714924406546</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02961875667469248</v>
+        <v>0.03631019471913672</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1666284178.279287</v>
+        <v>1791090146.95756</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09299516898994786</v>
+        <v>0.09461474255218938</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0328812537211302</v>
+        <v>0.02990590585089607</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1721595816.209452</v>
+        <v>2161111904.821317</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1330910655904165</v>
+        <v>0.1191898253318998</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02671084811845057</v>
+        <v>0.02958426734323921</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1219963745.454211</v>
+        <v>1471817270.247499</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1368317765540032</v>
+        <v>0.1320027664865911</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05912182888378925</v>
+        <v>0.04622498933687715</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2132894906.824384</v>
+        <v>2013136716.171204</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1232519402672274</v>
+        <v>0.1420921140915664</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04406014032880574</v>
+        <v>0.04657615341895102</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3934806427.181705</v>
+        <v>2729804933.825804</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08836337832952865</v>
+        <v>0.09786590083409871</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03574119088141992</v>
+        <v>0.03715347414662814</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>204</v>
+      </c>
+      <c r="J42" t="n">
+        <v>463</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1875562276.093592</v>
+        <v>2443016456.320866</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1587698299496159</v>
+        <v>0.1823358872648687</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02176869792025017</v>
+        <v>0.02342448421713582</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2334625118.402582</v>
+        <v>1788584653.81666</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09805552282462406</v>
+        <v>0.06399354663808908</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03553654343563008</v>
+        <v>0.03700179806907741</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1780376584.490793</v>
+        <v>1965479007.945529</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1285114060323327</v>
+        <v>0.1342592819908539</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05551536424568192</v>
+        <v>0.03746950796997373</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4767364511.568271</v>
+        <v>4738541000.167086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1441965636575477</v>
+        <v>0.1698962864105088</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04112738020943475</v>
+        <v>0.05652747510388049</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>275</v>
+      </c>
+      <c r="J46" t="n">
+        <v>465</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3345930118.485094</v>
+        <v>4809302676.672203</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1980461968940047</v>
+        <v>0.1776269017836964</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05200411372247776</v>
+        <v>0.04655878253801587</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>210</v>
+      </c>
+      <c r="J47" t="n">
+        <v>464</v>
+      </c>
+      <c r="K47" t="n">
+        <v>31.73146059811372</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3856176595.349344</v>
+        <v>2852731222.094696</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08220030788579882</v>
+        <v>0.07632552544526788</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02956148016390887</v>
+        <v>0.03698434395321062</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>231</v>
+      </c>
+      <c r="J48" t="n">
+        <v>461</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1654254245.121441</v>
+        <v>1734345450.232314</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1560313356419821</v>
+        <v>0.1469422885191667</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03492117771221363</v>
+        <v>0.03392127486600995</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3966309719.887882</v>
+        <v>4220249067.28941</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1543522081819365</v>
+        <v>0.1143066187254911</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05179954008610293</v>
+        <v>0.04961771918369439</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>166</v>
+      </c>
+      <c r="J50" t="n">
+        <v>465</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.87958044387433</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>964836400.9532728</v>
+        <v>1264935534.26974</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1599894636619568</v>
+        <v>0.1949130502408972</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04823663700913224</v>
+        <v>0.04759585071887767</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4110142698.881474</v>
+        <v>3327088702.076445</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1257191049970098</v>
+        <v>0.1262489548847543</v>
       </c>
       <c r="G52" t="n">
-        <v>0.038171410851621</v>
+        <v>0.04627612537439656</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>263</v>
+      </c>
+      <c r="J52" t="n">
+        <v>463</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3755534458.883409</v>
+        <v>3033969811.604002</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1609763202258063</v>
+        <v>0.1507331790026663</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03233469800860485</v>
+        <v>0.02865015896306545</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3024368432.377528</v>
+        <v>3816982035.050995</v>
       </c>
       <c r="F54" t="n">
-        <v>0.14968010301446</v>
+        <v>0.1531510970074737</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04844178436237306</v>
+        <v>0.03578359685790342</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>246</v>
+      </c>
+      <c r="J54" t="n">
+        <v>465</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4165985809.603834</v>
+        <v>3023838972.105031</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1353886136837321</v>
+        <v>0.1950189591531288</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02247780099015521</v>
+        <v>0.02460464441001194</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>230</v>
+      </c>
+      <c r="J55" t="n">
+        <v>461</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1844997560.577597</v>
+        <v>1883245837.419431</v>
       </c>
       <c r="F56" t="n">
-        <v>0.164910027727035</v>
+        <v>0.1363303708820612</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05526439004558945</v>
+        <v>0.03726521404688606</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3439877030.454454</v>
+        <v>3763892728.975955</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1444976938481444</v>
+        <v>0.1715895681000721</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02636615648844515</v>
+        <v>0.02138148163175557</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>199</v>
+      </c>
+      <c r="J57" t="n">
+        <v>464</v>
+      </c>
+      <c r="K57" t="n">
+        <v>34.39891216918303</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1599630818.196509</v>
+        <v>1191105863.31292</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1281320662036778</v>
+        <v>0.1795706711215453</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03772301853155435</v>
+        <v>0.03746478595153592</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5181631019.273032</v>
+        <v>3879215606.488505</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09421009518281555</v>
+        <v>0.1283296230523775</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04346571948782235</v>
+        <v>0.03287975920283658</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>228</v>
+      </c>
+      <c r="J59" t="n">
+        <v>464</v>
+      </c>
+      <c r="K59" t="n">
+        <v>33.49268203465</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2477494715.136722</v>
+        <v>3044595789.694915</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1329360428933328</v>
+        <v>0.1512125375915373</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03094590458062098</v>
+        <v>0.02104083177689087</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>90</v>
+      </c>
+      <c r="J60" t="n">
+        <v>465</v>
+      </c>
+      <c r="K60" t="n">
+        <v>37.73361794827442</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2731254776.177448</v>
+        <v>3115071979.925531</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1262101855886895</v>
+        <v>0.1214787386864934</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02055866263000824</v>
+        <v>0.02571806727151644</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1439020380.147828</v>
+        <v>1903259334.886518</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1290619729592039</v>
+        <v>0.1710397948312017</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04544172673706621</v>
+        <v>0.03851284442155112</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4591471701.075825</v>
+        <v>4766761670.328616</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0742287703837675</v>
+        <v>0.1031027718215829</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0287039937559492</v>
+        <v>0.04103556872508306</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>233</v>
+      </c>
+      <c r="J63" t="n">
+        <v>465</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4638234180.440185</v>
+        <v>3436374430.128325</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1482337479226889</v>
+        <v>0.1616268492031245</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02897726546201299</v>
+        <v>0.02890317766598749</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>233</v>
+      </c>
+      <c r="J64" t="n">
+        <v>464</v>
+      </c>
+      <c r="K64" t="n">
+        <v>26.45977485570016</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5191762983.184488</v>
+        <v>5904406037.082527</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1256664616292265</v>
+        <v>0.1276741282873282</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02040594982833822</v>
+        <v>0.02933619230715638</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>330</v>
+      </c>
+      <c r="J65" t="n">
+        <v>464</v>
+      </c>
+      <c r="K65" t="n">
+        <v>31.66038979122143</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3725935052.017587</v>
+        <v>4491843788.639321</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1576056707929979</v>
+        <v>0.134059913286386</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03086094144653136</v>
+        <v>0.04196424497321447</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>229</v>
+      </c>
+      <c r="J66" t="n">
+        <v>465</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3002344153.357035</v>
+        <v>2766441385.268822</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07089163817162543</v>
+        <v>0.08688773537502226</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05058663834079078</v>
+        <v>0.04413998580105995</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4077057783.745396</v>
+        <v>4730091643.301561</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1484903404155032</v>
+        <v>0.1069040090053446</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04777030326031127</v>
+        <v>0.03182825343459321</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>253</v>
+      </c>
+      <c r="J68" t="n">
+        <v>464</v>
+      </c>
+      <c r="K68" t="n">
+        <v>31.6538632775202</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2287795210.234789</v>
+        <v>2000646766.148294</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1643800470725597</v>
+        <v>0.1722694069596136</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05597864465529134</v>
+        <v>0.03851935324272804</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2909,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2996879411.857254</v>
+        <v>2520403504.967904</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06846831381895052</v>
+        <v>0.06547371737266239</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03646300742943468</v>
+        <v>0.03882367445325288</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>68</v>
+      </c>
+      <c r="J70" t="n">
+        <v>464</v>
+      </c>
+      <c r="K70" t="n">
+        <v>24.47784022728613</v>
       </c>
     </row>
     <row r="71">
@@ -2418,17 +2946,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4195435006.04093</v>
+        <v>4514256519.834321</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1603214140415063</v>
+        <v>0.1551466381836473</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02997788129500261</v>
+        <v>0.03333132321375017</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>316</v>
+      </c>
+      <c r="J71" t="n">
+        <v>465</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2151426823.026014</v>
+        <v>2180584973.510794</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06939606369047167</v>
+        <v>0.1009600567101988</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03545999738062426</v>
+        <v>0.03976242868139797</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3015514707.370625</v>
+        <v>2920187225.85621</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07948558820050816</v>
+        <v>0.1061941180166778</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03919020516105813</v>
+        <v>0.04085674372437777</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>454</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3099902403.178423</v>
+        <v>3719501039.692974</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1242775927680928</v>
+        <v>0.1503018272386191</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02395614338220889</v>
+        <v>0.03115155677249439</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>135</v>
+      </c>
+      <c r="J74" t="n">
+        <v>465</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2141501968.303878</v>
+        <v>2413248055.410268</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1450938096589451</v>
+        <v>0.1052791413154951</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03258683456071389</v>
+        <v>0.02956207273072083</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4839552831.128549</v>
+        <v>3405877019.64708</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1177555046929562</v>
+        <v>0.1079124909452384</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03058929612565376</v>
+        <v>0.02953130196729826</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>222</v>
+      </c>
+      <c r="J76" t="n">
+        <v>464</v>
+      </c>
+      <c r="K76" t="n">
+        <v>26.04680649265747</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1773222166.721272</v>
+        <v>2149351991.206306</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1594083493164526</v>
+        <v>0.1833225802382805</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0289604148484374</v>
+        <v>0.02952950095705791</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2994935949.870136</v>
+        <v>4015354959.792587</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1321967113991364</v>
+        <v>0.08319953482200433</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05691836202646615</v>
+        <v>0.05436866077812776</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>231</v>
+      </c>
+      <c r="J78" t="n">
+        <v>465</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1490683606.428657</v>
+        <v>1751194234.760642</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1635390785099095</v>
+        <v>0.1075570014866002</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03709532352190761</v>
+        <v>0.02496225390347223</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5220984515.292764</v>
+        <v>4646776388.110703</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08130292718230216</v>
+        <v>0.1116976683952624</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03680622124522448</v>
+        <v>0.03178371552440245</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>227</v>
+      </c>
+      <c r="J80" t="n">
+        <v>464</v>
+      </c>
+      <c r="K80" t="n">
+        <v>27.81282400272589</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4234277285.646601</v>
+        <v>3568736837.82818</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09489621472642269</v>
+        <v>0.09430661047138099</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0211591892554621</v>
+        <v>0.02991160753769402</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>216</v>
+      </c>
+      <c r="J81" t="n">
+        <v>462</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4807809197.040967</v>
+        <v>5523932666.922518</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1535708581743374</v>
+        <v>0.1503803692304173</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02188589797313381</v>
+        <v>0.02377719909625894</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>308</v>
+      </c>
+      <c r="J82" t="n">
+        <v>465</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1653324585.891749</v>
+        <v>2488614819.749842</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1163764390633536</v>
+        <v>0.10983779093709</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04427062379157751</v>
+        <v>0.03273679753124888</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1777008502.426178</v>
+        <v>2083739076.720492</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08160596481767547</v>
+        <v>0.1019916257946269</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03154395288888307</v>
+        <v>0.04512478738597146</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3045030556.045725</v>
+        <v>3171300252.787523</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1358513397405542</v>
+        <v>0.1816589148788643</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04722729199606899</v>
+        <v>0.03980645152846778</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2099649108.199479</v>
+        <v>1804730563.616367</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1468233901139195</v>
+        <v>0.1545437623136471</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01819398820350559</v>
+        <v>0.02266911758588616</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3510,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1484929739.848471</v>
+        <v>1385553359.414251</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1561019280479441</v>
+        <v>0.139576565057832</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03919578173604694</v>
+        <v>0.03420477644496931</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2654640123.838374</v>
+        <v>2280366656.76265</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1714863790426521</v>
+        <v>0.1546955392119348</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02407987870576122</v>
+        <v>0.02877056634094347</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2146790551.268309</v>
+        <v>2752688659.92966</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1562082021845546</v>
+        <v>0.1205803860426844</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04131098057414645</v>
+        <v>0.0293969068617402</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2073148763.449111</v>
+        <v>1957456187.07093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1355515713573811</v>
+        <v>0.09151450978966762</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04899538008966051</v>
+        <v>0.05410611420567346</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1339242613.621701</v>
+        <v>1928061800.510837</v>
       </c>
       <c r="F91" t="n">
-        <v>0.162702713566864</v>
+        <v>0.1912114644921339</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04379532780971407</v>
+        <v>0.0523413267741713</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1861520566.22493</v>
+        <v>2435346639.616243</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07876753672697634</v>
+        <v>0.06950876284985637</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04398188792089922</v>
+        <v>0.04454261730176249</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4947623583.097902</v>
+        <v>3861049723.615149</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08819327763353896</v>
+        <v>0.08786393909004876</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05164621041683711</v>
+        <v>0.05185367387189754</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>224</v>
+      </c>
+      <c r="J93" t="n">
+        <v>464</v>
+      </c>
+      <c r="K93" t="n">
+        <v>31.18955079554077</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2082520841.381453</v>
+        <v>2403500851.527226</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1297081300058643</v>
+        <v>0.1533284147397282</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03185505207255427</v>
+        <v>0.0364066813290892</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3065448137.297232</v>
+        <v>3196954763.93978</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09953843000839364</v>
+        <v>0.08992619395398219</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0474428503319921</v>
+        <v>0.05020760167439097</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2145164266.539402</v>
+        <v>1634382495.703574</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1380334191203351</v>
+        <v>0.1090343861653206</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03364576885546805</v>
+        <v>0.04097428390765667</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5073321285.673399</v>
+        <v>4421601390.003376</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1206327909299677</v>
+        <v>0.1333985389025686</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02268846437604921</v>
+        <v>0.02605498383588944</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>241</v>
+      </c>
+      <c r="J97" t="n">
+        <v>465</v>
+      </c>
+      <c r="K97" t="n">
+        <v>35.18025563947386</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2814996149.252322</v>
+        <v>2700035014.091496</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07820402079097627</v>
+        <v>0.08228176597159469</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02737405620764896</v>
+        <v>0.02604358857954876</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>464</v>
+      </c>
+      <c r="K98" t="n">
+        <v>25.56555201438033</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3032444201.906631</v>
+        <v>3358140053.054729</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1441653146886757</v>
+        <v>0.1259244291913575</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03541030615816385</v>
+        <v>0.02886277015114204</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4413530397.231985</v>
+        <v>4805800844.979731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1598307036461801</v>
+        <v>0.1387471293534494</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01766787715812144</v>
+        <v>0.02193577773104471</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>216</v>
+      </c>
+      <c r="J100" t="n">
+        <v>465</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3403598609.17183</v>
+        <v>2610533015.281186</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1343405723738646</v>
+        <v>0.1841108283691887</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04915847682553739</v>
+        <v>0.04398795751629293</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
